--- a/aCCTg. pROGRAm/LOANS RECEIVABLE.xlsx
+++ b/aCCTg. pROGRAm/LOANS RECEIVABLE.xlsx
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
@@ -504,19 +504,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>50000</v>
       </c>
-      <c r="G2">
-        <f>+D2*0.3</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -525,7 +521,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -534,7 +530,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="3">
         <f>SUM(D2:D5)</f>
         <v>50000</v>
@@ -545,7 +541,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -556,7 +552,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -565,7 +561,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -574,7 +570,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="4">
         <f>SUM(D8:D11)</f>
         <v>50000</v>
@@ -585,7 +581,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -596,12 +592,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>

--- a/aCCTg. pROGRAm/LOANS RECEIVABLE.xlsx
+++ b/aCCTg. pROGRAm/LOANS RECEIVABLE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -107,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -163,14 +163,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,6 +188,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -236,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,7 +274,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,9 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/aCCTg. pROGRAm/LOANS RECEIVABLE.xlsx
+++ b/aCCTg. pROGRAm/LOANS RECEIVABLE.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>LOANS RECEIVABLE</t>
   </si>
@@ -100,6 +100,81 @@
   </si>
   <si>
     <t>NOTE: DIMINISHING BAL INTEREST RATE</t>
+  </si>
+  <si>
+    <t>terms of payment</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>name debtor?</t>
+  </si>
+  <si>
+    <t>cash voucher doc number</t>
+  </si>
+  <si>
+    <t>1year to pay</t>
+  </si>
+  <si>
+    <t>mode of payment</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>deminishing (default)</t>
+  </si>
+  <si>
+    <t>service fee</t>
+  </si>
+  <si>
+    <t>interest rate</t>
+  </si>
+  <si>
+    <t>monthly or semi-monthly or weekly</t>
+  </si>
+  <si>
+    <t>regular loan</t>
+  </si>
+  <si>
+    <t>business loan</t>
+  </si>
+  <si>
+    <t>educational loan</t>
+  </si>
+  <si>
+    <t>petty cash loan</t>
+  </si>
+  <si>
+    <t>credit&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>MODE OF PAYMENT</t>
+  </si>
+  <si>
+    <t>Terms of PAYMENT</t>
+  </si>
+  <si>
+    <t>DOC#</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>method: Deminishing/ Flat</t>
+  </si>
+  <si>
+    <t>Type of LOAN</t>
+  </si>
+  <si>
+    <t>NAME OF LOANEE</t>
+  </si>
+  <si>
+    <t>DONT FORGET TO DISPLAY CHARGE</t>
   </si>
 </sst>
 </file>
@@ -107,7 +182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -141,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -160,17 +235,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,6 +290,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -239,7 +363,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,7 +398,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,9 +607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -496,7 +622,7 @@
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
@@ -504,16 +630,42 @@
       <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>50000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10"/>
+      <c r="R3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -521,8 +673,11 @@
         <f>+D2*0.02</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -530,8 +685,21 @@
         <f>+D2-F4</f>
         <v>49000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="10"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="3">
         <f>SUM(D2:D5)</f>
         <v>50000</v>
@@ -541,8 +709,35 @@
         <f>SUM(F2:F5)</f>
         <v>50000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="10"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -553,7 +748,23 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+      <c r="S9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9" s="9"/>
+      <c r="U9" s="10"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -561,8 +772,11 @@
         <f>+D8*0.02</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -570,8 +784,24 @@
         <f>+D8-F8-F10</f>
         <v>44000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="11"/>
+      <c r="T11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="4">
         <f>SUM(D8:D11)</f>
         <v>50000</v>
@@ -581,8 +811,11 @@
         <f>SUM(F8:F11)</f>
         <v>50000</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -592,13 +825,16 @@
       <c r="F14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -854,8 +1090,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
     <mergeCell ref="F31:H31"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N5:U5"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N7:U7"/>
+    <mergeCell ref="T11:U11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aCCTg. pROGRAm/LOANS RECEIVABLE.xlsx
+++ b/aCCTg. pROGRAm/LOANS RECEIVABLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>LOANS RECEIVABLE</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>DONT FORGET TO DISPLAY CHARGE</t>
+  </si>
+  <si>
+    <t>Penalty Rate</t>
+  </si>
+  <si>
+    <t>Loan Amount</t>
   </si>
 </sst>
 </file>
@@ -287,6 +293,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,9 +308,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -609,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,15 +661,15 @@
       <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
-      <c r="R3" s="8" t="s">
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
+      <c r="R3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="10"/>
+      <c r="S3" s="13"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -688,16 +694,16 @@
       <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="10"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="3">
@@ -726,16 +732,16 @@
       <c r="J7" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="10"/>
+      <c r="N7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -752,17 +758,16 @@
       <c r="H9" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10"/>
-      <c r="S9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="10"/>
+      <c r="N9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="13"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -787,19 +792,17 @@
       <c r="H11" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="N11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
       <c r="Q11" s="13"/>
-      <c r="R11" s="11"/>
-      <c r="T11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="10"/>
+      <c r="S11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="12"/>
+      <c r="U11" s="13"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="4">
@@ -815,6 +818,21 @@
         <v>42</v>
       </c>
     </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="13"/>
+      <c r="P13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="7"/>
+      <c r="T13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="13"/>
+    </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
@@ -833,6 +851,10 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
+      <c r="N15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -992,11 +1014,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
@@ -1090,16 +1112,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="N5:U5"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="S11:U11"/>
     <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N9:U9"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:U7"/>
-    <mergeCell ref="T11:U11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aCCTg. pROGRAm/LOANS RECEIVABLE.xlsx
+++ b/aCCTg. pROGRAm/LOANS RECEIVABLE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>LOANS RECEIVABLE</t>
   </si>
@@ -81,9 +81,6 @@
     <t>PENALTY FOR 3 MOS. AT 5%</t>
   </si>
   <si>
-    <t>OF THE PAST DUE AMOUNT</t>
-  </si>
-  <si>
     <t>REGULAR LOAN</t>
   </si>
   <si>
@@ -181,6 +178,131 @@
   </si>
   <si>
     <t>Loan Amount</t>
+  </si>
+  <si>
+    <t>CASE: Reloan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kung mag reloan ug N amount, </t>
+  </si>
+  <si>
+    <t>The Payment will be calculated based on the N amount reloan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deduct PREVIOUS_BAL*INTEREST-rate, and Service fee of new loan application </t>
+  </si>
+  <si>
+    <t>Billing:</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>30days after approval</t>
+  </si>
+  <si>
+    <t>semi-monthly   15 days after approval</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>7 days after approval</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>CASE:Advance Payment</t>
+  </si>
+  <si>
+    <t>1. I have paid the monthly payment and the interest for the month</t>
+  </si>
+  <si>
+    <t>term of payment 1YEAR</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>this means I will only pay the remaining 18 days interest for the next months bill</t>
+  </si>
+  <si>
+    <t>2. Then I paid again so I'm 12 days advance for the next bill</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OF THE PAST </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DUE AMOUNT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(exclude current month)</t>
+    </r>
+  </si>
+  <si>
+    <t>CASE: Advance Payment</t>
+  </si>
+  <si>
+    <t>sobra ang bayad ko for the month. Ang sobra ay ibabawas sa PRINCIPAL AMOUNT</t>
+  </si>
+  <si>
+    <t>DAILY</t>
+  </si>
+  <si>
+    <t>5 days advance pay</t>
+  </si>
+  <si>
+    <t>LOAN</t>
+  </si>
+  <si>
+    <t>(principal*rate*terms)/360</t>
+  </si>
+  <si>
+    <t>per day int</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>bal</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>penlty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASH </t>
+  </si>
+  <si>
+    <t>days</t>
   </si>
 </sst>
 </file>
@@ -222,7 +344,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -278,12 +400,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -296,6 +498,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -308,6 +521,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -613,22 +828,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15:O15"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
@@ -637,13 +854,13 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -651,27 +868,27 @@
         <v>50000</v>
       </c>
       <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-      <c r="R3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="13"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="23"/>
+      <c r="P3" s="24"/>
+      <c r="R3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="24"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -680,10 +897,10 @@
         <v>1000</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -692,20 +909,20 @@
         <v>49000</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="13"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="24"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="3">
         <f>SUM(D2:D5)</f>
         <v>50000</v>
@@ -716,34 +933,34 @@
         <v>50000</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="13"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N7" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="24"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -754,22 +971,22 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="13"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="24"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -778,10 +995,10 @@
         <v>1000</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2</v>
       </c>
@@ -790,21 +1007,24 @@
         <v>44000</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="24"/>
+      <c r="S11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="13"/>
-      <c r="S11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="13"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T11" s="23"/>
+      <c r="U11" s="24"/>
+      <c r="W11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="4">
         <f>SUM(D8:D11)</f>
         <v>50000</v>
@@ -815,53 +1035,59 @@
         <v>50000</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="24"/>
+      <c r="P13" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="Q13" s="9"/>
       <c r="R13" s="7"/>
-      <c r="T13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="U13" s="13"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="24"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15" s="13"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="24"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>12</v>
       </c>
@@ -871,8 +1097,14 @@
       <c r="F17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -881,15 +1113,21 @@
         <v>2083.3333333333335</v>
       </c>
       <c r="E18" s="1">
-        <f>+D2*0.12/12</f>
-        <v>500</v>
+        <f>+D2*0.12/24</f>
+        <v>250</v>
       </c>
       <c r="F18" s="2">
         <f>+D18+E18</f>
-        <v>2583.3333333333335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2333.3333333333335</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -898,222 +1136,582 @@
         <v>1041.6666666666667</v>
       </c>
       <c r="E19" s="1">
-        <f>+D2*0.12/24</f>
-        <v>250</v>
+        <f>+D2*0.12/48</f>
+        <v>125</v>
       </c>
       <c r="F19" s="2">
         <f>+E19+D19</f>
-        <v>1291.6666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1166.6666666666667</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1">
+        <f>+D8/(2*12*30)</f>
+        <v>69.444444444444443</v>
+      </c>
+      <c r="E20" s="2">
+        <f>+(D8*0.12)/(2*12*30)</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F20" s="2">
+        <f>+E20+D20</f>
+        <v>77.777777777777771</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>59</v>
+      </c>
+      <c r="R20" s="1">
+        <f>+R18/12</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="S20" s="1">
+        <f>+(R18*0.12)/12</f>
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <f>+R20*12</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1">
+        <f>+D19</f>
+        <v>1041.6666666666667</v>
+      </c>
+      <c r="E21" s="2">
+        <f>+E20*(15-5)</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="F21" s="2">
+        <f>+D21+E21</f>
+        <v>1125</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R23" s="1">
+        <f>+R18/365</f>
+        <v>2.7397260273972601</v>
+      </c>
+      <c r="S23" s="1">
+        <f>+(R18*0.12)/365</f>
+        <v>0.32876712328767121</v>
+      </c>
+      <c r="T23">
+        <f>+R23*365</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1">
         <v>50000</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="I25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="2">
-        <f>+G23/24</f>
+      <c r="D26" s="2">
+        <f>+G25/24</f>
         <v>2083.3333333333335</v>
       </c>
-      <c r="E24" s="1">
-        <f>+G23*0.12/12</f>
+      <c r="E26" s="1">
+        <f>+G25*0.12/24</f>
+        <v>250</v>
+      </c>
+      <c r="F26" s="2">
+        <f>+E26+D26</f>
+        <v>2333.3333333333335</v>
+      </c>
+      <c r="G26" s="2">
+        <f>+G25-F26</f>
+        <v>47666.666666666664</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:D28" si="0">+G26/24</f>
+        <v>1986.1111111111111</v>
+      </c>
+      <c r="E27" s="1">
+        <f>+G26*0.12/24</f>
+        <v>238.33333333333329</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" ref="F27:F28" si="1">+E27+D27</f>
+        <v>2224.4444444444443</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" ref="G27:G28" si="2">+G26-F27</f>
+        <v>45442.222222222219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>1893.4259259259259</v>
+      </c>
+      <c r="E28" s="1">
+        <f>+G27*0.12/24</f>
+        <v>227.21111111111108</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>2120.6370370370369</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="2"/>
+        <v>43321.585185185184</v>
+      </c>
+      <c r="H28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12">
+        <f>+D18*3</f>
+        <v>6250</v>
+      </c>
+      <c r="I31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15">
+        <f>+D31*0.05</f>
+        <v>312.5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="16"/>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="20">
+        <f>+E18*3</f>
+        <v>750</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="19">
+        <f>SUM(D31:D34)</f>
+        <v>7312.5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F36" s="2">
+        <f>+G25</f>
+        <v>50000</v>
+      </c>
+      <c r="G36" s="2">
+        <f>+D26</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="H36" s="2">
+        <f>+F36-G36</f>
+        <v>47916.666666666664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f>+D38</f>
         <v>500</v>
       </c>
-      <c r="F24" s="2">
-        <f>+E24+D24</f>
+      <c r="H37" s="2">
+        <f>+F36-H36-G36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>500</v>
+      </c>
+      <c r="E38" s="2">
+        <f>+D26</f>
+        <v>2083.3333333333335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>500</v>
+      </c>
+      <c r="E39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E40" s="2">
+        <f>+E38-E39</f>
+        <v>1583.3333333333335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E41" s="1">
+        <f>+E40*0.02</f>
+        <v>31.666666666666671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E42" s="2">
+        <f>+E38+E39+E41</f>
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="2">
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="E44" s="2">
+        <f>+D43-D44</f>
+        <v>47916.666666666664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49">
+        <f>+D48/720</f>
+        <v>69.444444444444443</v>
+      </c>
+      <c r="H49">
+        <f>+D48*0.12/360</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J49">
+        <f>+D48*0.12*(30/360)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50">
+        <f>+G49*30</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="H50">
+        <f>+H49*30</f>
+        <v>500.00000000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="25">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>5000</v>
+      </c>
+      <c r="C53" s="25">
+        <v>43379</v>
+      </c>
+      <c r="E53" s="1">
+        <f>+B53-H53</f>
+        <v>4916.666666666667</v>
+      </c>
+      <c r="F53" s="2">
+        <f>+D48-E53</f>
+        <v>45083.333333333336</v>
+      </c>
+      <c r="G53" s="1">
+        <f>+G49*5</f>
+        <v>347.22222222222223</v>
+      </c>
+      <c r="H53" s="1">
+        <f>+H49*5</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>5000</v>
+      </c>
+      <c r="C54" s="25">
+        <v>43419</v>
+      </c>
+      <c r="E54">
+        <f>+B54-H54</f>
+        <v>4750</v>
+      </c>
+      <c r="F54" s="2">
+        <f>+F53-E54</f>
+        <v>40333.333333333336</v>
+      </c>
+      <c r="G54">
+        <f>+A54*G49</f>
+        <v>1041.6666666666667</v>
+      </c>
+      <c r="H54">
+        <f>+H49*A54</f>
+        <v>250.00000000000003</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55">
+        <f>+G50</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="H55">
+        <f>+H50</f>
+        <v>500.00000000000006</v>
+      </c>
+      <c r="I55">
+        <f>+G55*0.05</f>
+        <v>104.16666666666669</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>5000</v>
+      </c>
+      <c r="C56" s="25">
+        <v>43470</v>
+      </c>
+      <c r="E56" s="2">
+        <f>+B56-H55-H56-I55</f>
+        <v>4295.833333333333</v>
+      </c>
+      <c r="F56" s="2">
+        <f>+F54-E56</f>
+        <v>36037.5</v>
+      </c>
+      <c r="G56" s="2">
+        <f>+G53</f>
+        <v>347.22222222222223</v>
+      </c>
+      <c r="H56" s="2">
+        <f>+A56*H49</f>
+        <v>100</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>30</v>
+      </c>
+      <c r="B57">
+        <f>+G57+H57</f>
         <v>2583.3333333333335</v>
       </c>
-      <c r="G24" s="2">
-        <f>+G23-F24</f>
-        <v>47416.666666666664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" ref="D25:D26" si="0">+G24/24</f>
-        <v>1975.6944444444443</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" ref="E25:E26" si="1">+G24*0.12/12</f>
-        <v>474.16666666666657</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" ref="F25:F26" si="2">+E25+D25</f>
-        <v>2449.8611111111109</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" ref="G25:G26" si="3">+G24-F25</f>
-        <v>44966.805555555555</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>1873.616898148148</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>449.66805555555555</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="2"/>
-        <v>2323.2849537037036</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="3"/>
-        <v>42643.520601851851</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="1">
-        <f>+D18*3-100</f>
-        <v>6150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="1">
-        <f>+D28*0.05</f>
-        <v>307.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="2">
-        <f>+G23</f>
-        <v>50000</v>
-      </c>
-      <c r="G33" s="2">
-        <f>+D24</f>
+      <c r="C57" s="25">
+        <v>43524</v>
+      </c>
+      <c r="D57" s="26">
+        <f>+C57-C56</f>
+        <v>54</v>
+      </c>
+      <c r="G57">
+        <f>+G50</f>
         <v>2083.3333333333335</v>
       </c>
-      <c r="H33" s="2">
-        <f>+F33-G33</f>
-        <v>47916.666666666664</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G34">
-        <f>+D35</f>
-        <v>500</v>
-      </c>
-      <c r="H34" s="2">
-        <f>+F33-H33-G33</f>
+      <c r="H57">
+        <f>+H50</f>
+        <v>500.00000000000006</v>
+      </c>
+      <c r="I57">
         <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35">
-        <v>500</v>
-      </c>
-      <c r="E35" s="2">
-        <f>+D24</f>
-        <v>2083.3333333333335</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36">
-        <v>500</v>
-      </c>
-      <c r="E36">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="2">
-        <f>+E35-E36</f>
-        <v>1583.3333333333335</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E38">
-        <f>+E37*0.02</f>
-        <v>31.666666666666671</v>
-      </c>
-      <c r="G38">
-        <f>+G37*0.02</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E39" s="2">
-        <f>+E35+E36+E38</f>
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D41" s="2">
-        <v>2083.3333333333335</v>
-      </c>
-      <c r="E41" s="2">
-        <f>+D40-D41</f>
-        <v>47916.666666666664</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F34:H34"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="N5:U5"/>
     <mergeCell ref="N11:Q11"/>
@@ -1126,6 +1724,7 @@
     <mergeCell ref="N7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/aCCTg. pROGRAm/LOANS RECEIVABLE.xlsx
+++ b/aCCTg. pROGRAm/LOANS RECEIVABLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
   <si>
     <t>LOANS RECEIVABLE</t>
   </si>
@@ -509,6 +509,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -521,8 +523,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -828,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="D60" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,15 +878,15 @@
       <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="R3" s="22" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
+      <c r="R3" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="24"/>
+      <c r="S3" s="26"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -911,16 +911,16 @@
       <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="24"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="26"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="3">
@@ -949,16 +949,16 @@
       <c r="J7" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="24"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="26"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -975,16 +975,16 @@
       <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="24"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="26"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1009,17 +1009,17 @@
       <c r="H11" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="24"/>
-      <c r="S11" s="22" t="s">
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+      <c r="S11" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="23"/>
-      <c r="U11" s="24"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="26"/>
       <c r="W11" t="s">
         <v>64</v>
       </c>
@@ -1045,19 +1045,19 @@
       <c r="D13" t="s">
         <v>79</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="24"/>
+      <c r="O13" s="26"/>
       <c r="P13" s="8" t="s">
         <v>48</v>
       </c>
       <c r="Q13" s="9"/>
       <c r="R13" s="7"/>
-      <c r="T13" s="22" t="s">
+      <c r="T13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="U13" s="24"/>
+      <c r="U13" s="26"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1077,10 +1077,10 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="24"/>
+      <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1394,11 +1394,11 @@
         <f>+E18*3</f>
         <v>750</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
       <c r="I34" t="s">
         <v>68</v>
       </c>
@@ -1571,7 +1571,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C52" s="25">
+      <c r="C52" s="21">
         <v>43374</v>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       <c r="B53">
         <v>5000</v>
       </c>
-      <c r="C53" s="25">
+      <c r="C53" s="21">
         <v>43379</v>
       </c>
       <c r="E53" s="1">
@@ -1612,7 +1612,7 @@
       <c r="B54">
         <v>5000</v>
       </c>
-      <c r="C54" s="25">
+      <c r="C54" s="21">
         <v>43419</v>
       </c>
       <c r="E54">
@@ -1659,7 +1659,7 @@
       <c r="B56">
         <v>5000</v>
       </c>
-      <c r="C56" s="25">
+      <c r="C56" s="21">
         <v>43470</v>
       </c>
       <c r="E56" s="2">
@@ -1690,10 +1690,10 @@
         <f>+G57+H57</f>
         <v>2583.3333333333335</v>
       </c>
-      <c r="C57" s="25">
+      <c r="C57" s="21">
         <v>43524</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D57" s="22">
         <f>+C57-C56</f>
         <v>54</v>
       </c>
@@ -1706,6 +1706,215 @@
         <v>500.00000000000006</v>
       </c>
       <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s">
+        <v>84</v>
+      </c>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63">
+        <f>+D62/720</f>
+        <v>69.444444444444443</v>
+      </c>
+      <c r="H63">
+        <f>+D62*0.12/360</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J63">
+        <f>+D62*0.12*(30/360)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64">
+        <f>+G63*30</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="H64">
+        <f>+H63*30</f>
+        <v>500.00000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="21">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>5000</v>
+      </c>
+      <c r="C67" s="21">
+        <v>43379</v>
+      </c>
+      <c r="E67" s="1">
+        <f>+B67-H67</f>
+        <v>4916.666666666667</v>
+      </c>
+      <c r="F67" s="2">
+        <f>+D62-E67</f>
+        <v>45083.333333333336</v>
+      </c>
+      <c r="G67" s="1">
+        <f>+G63*5</f>
+        <v>347.22222222222223</v>
+      </c>
+      <c r="H67" s="1">
+        <f>+H63*5</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>5000</v>
+      </c>
+      <c r="C68" s="21">
+        <v>43419</v>
+      </c>
+      <c r="E68" s="2">
+        <f>+B68-H68</f>
+        <v>4774.583333333333</v>
+      </c>
+      <c r="F68" s="2">
+        <f>+F67-E68</f>
+        <v>40308.75</v>
+      </c>
+      <c r="G68">
+        <f>+A68*G63</f>
+        <v>1041.6666666666667</v>
+      </c>
+      <c r="H68" s="1">
+        <f>+F67*A68*(0.12/360)</f>
+        <v>225.41666666666666</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="G69">
+        <f>+G64</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="H69" s="1">
+        <f>+F68*30*(0.12/360)</f>
+        <v>403.08749999999998</v>
+      </c>
+      <c r="I69">
+        <f>+G69*0.05</f>
+        <v>104.16666666666669</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>5000</v>
+      </c>
+      <c r="C70" s="21">
+        <v>43470</v>
+      </c>
+      <c r="E70" s="2">
+        <f>+B70-H69-H70-I69</f>
+        <v>4412.1283333333331</v>
+      </c>
+      <c r="F70" s="2">
+        <f>+F68-E70</f>
+        <v>35896.621666666666</v>
+      </c>
+      <c r="G70" s="2">
+        <f>+G63*A70</f>
+        <v>416.66666666666663</v>
+      </c>
+      <c r="H70" s="1">
+        <f>+F68*A70*(0.12/360)</f>
+        <v>80.617499999999993</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>30</v>
+      </c>
+      <c r="B71">
+        <v>500</v>
+      </c>
+      <c r="C71" s="21">
+        <v>43524</v>
+      </c>
+      <c r="D71" s="22"/>
+      <c r="E71" s="2">
+        <f>+B71-H71</f>
+        <v>141.03378333333336</v>
+      </c>
+      <c r="F71" s="2">
+        <f>+F70-E71</f>
+        <v>35755.587883333334</v>
+      </c>
+      <c r="G71">
+        <f>+G64</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="H71" s="1">
+        <f>+F70*A71*(0.12/360)</f>
+        <v>358.96621666666664</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
     </row>
